--- a/HM.BST.xlsx
+++ b/HM.BST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579BED9-D39F-4C93-B556-5E4D66747B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976EE18-2DFA-4F9D-82E9-D63930519D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A344954E-3009-47EB-94FE-5B6CEBCD1700}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A344954E-3009-47EB-94FE-5B6CEBCD1700}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Operating Profit</t>
   </si>
   <si>
-    <t>Revenue Y:Y</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>IR</t>
-  </si>
-  <si>
-    <t>HM.BST</t>
   </si>
   <si>
     <t>Noridics Store</t>
@@ -253,6 +247,12 @@
   </si>
   <si>
     <t>Q325</t>
+  </si>
+  <si>
+    <t>HM-B.ST</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,7 +436,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -775,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABC067D-9DC0-461D-91B4-101DF36C7FA7}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>134.5</v>
+        <v>134.9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -815,34 +816,34 @@
         <v>1604.491</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="14">
         <f>I3*I2</f>
-        <v>215804.03949999998</v>
+        <v>216445.83590000001</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="14">
-        <v>16578</v>
+        <v>16262</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -850,10 +851,11 @@
         <v>14</v>
       </c>
       <c r="I6" s="14">
-        <v>64974</v>
+        <f>14435+60924</f>
+        <v>75359</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,7 +867,7 @@
       </c>
       <c r="I7" s="14">
         <f>I4+I6-I5</f>
-        <v>264200.03949999996</v>
+        <v>275542.83590000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -891,13 +893,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -924,10 +926,10 @@
   <dimension ref="A1:CO281"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,16 +970,16 @@
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="P2">
         <v>2021</v>
@@ -994,7 +996,7 @@
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16">
         <v>3907</v>
@@ -1023,7 +1025,9 @@
       <c r="K3" s="16">
         <v>3742</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="16">
+        <v>3706</v>
+      </c>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -1116,7 +1120,7 @@
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="16">
         <v>254</v>
@@ -1145,7 +1149,9 @@
       <c r="K4" s="16">
         <v>239</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="16">
+        <v>239</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1238,7 +1244,7 @@
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="16">
         <v>74</v>
@@ -1267,7 +1273,9 @@
       <c r="K5" s="16">
         <v>43</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="16">
+        <v>32</v>
+      </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1360,7 +1368,7 @@
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="16">
         <v>53</v>
@@ -1389,7 +1397,9 @@
       <c r="K6" s="16">
         <v>46</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="16">
+        <v>46</v>
+      </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1482,7 +1492,7 @@
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16">
         <v>69</v>
@@ -1511,7 +1521,9 @@
       <c r="K7" s="16">
         <v>69</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="16">
+        <v>69</v>
+      </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1604,7 +1616,7 @@
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="16">
         <v>26</v>
@@ -1633,7 +1645,9 @@
       <c r="K8" s="16">
         <v>41</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="16">
+        <v>42</v>
+      </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1726,7 +1740,7 @@
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
@@ -1755,7 +1769,9 @@
       <c r="K9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1848,7 +1864,7 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16">
         <v>31</v>
@@ -1877,7 +1893,9 @@
       <c r="K10" s="16">
         <v>33</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="16">
+        <v>32</v>
+      </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1970,7 +1988,7 @@
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
@@ -1999,7 +2017,9 @@
       <c r="K11" s="16">
         <v>0</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -2092,7 +2112,7 @@
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="16">
         <v>394</v>
@@ -2121,7 +2141,9 @@
       <c r="K12" s="16">
         <v>375</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <v>371</v>
+      </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -2214,7 +2236,7 @@
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="16">
         <v>1065</v>
@@ -2243,7 +2265,9 @@
       <c r="K13" s="16">
         <v>1010</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="16">
+        <v>1005</v>
+      </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -2336,7 +2360,7 @@
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="16">
         <v>478</v>
@@ -2365,7 +2389,9 @@
       <c r="K14" s="16">
         <v>377</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16">
+        <v>477</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -2458,7 +2484,7 @@
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="16">
         <v>619</v>
@@ -2487,7 +2513,9 @@
       <c r="K15" s="16">
         <v>567</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16">
+        <v>562</v>
+      </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -2580,7 +2608,7 @@
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="16">
         <v>738</v>
@@ -2609,7 +2637,9 @@
       <c r="K16" s="16">
         <v>753</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="16">
+        <v>753</v>
+      </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -2702,7 +2732,7 @@
     </row>
     <row r="17" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="16">
         <v>1120</v>
@@ -2731,7 +2761,9 @@
       <c r="K17" s="16">
         <v>1031</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="16">
+        <v>998</v>
+      </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
@@ -2824,7 +2856,7 @@
     </row>
     <row r="18" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="17">
         <v>4414</v>
@@ -2853,7 +2885,9 @@
       <c r="K18" s="17">
         <v>4213</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17">
+        <v>4166</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -3044,7 +3078,7 @@
     </row>
     <row r="20" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="16">
         <v>4842</v>
@@ -3055,7 +3089,7 @@
       <c r="E20" s="16">
         <v>5809</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="16">
         <f>+R20-SUM(C20:E20)</f>
         <v>5353</v>
       </c>
@@ -3075,7 +3109,9 @@
       <c r="K20" s="16">
         <v>4606</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="16">
+        <v>5160</v>
+      </c>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -3164,7 +3200,7 @@
     </row>
     <row r="21" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="16">
         <v>17558</v>
@@ -3175,7 +3211,7 @@
       <c r="E21" s="16">
         <v>20581</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <f t="shared" ref="F21:F37" si="1">+R21-SUM(C21:E21)</f>
         <v>21326</v>
       </c>
@@ -3195,7 +3231,9 @@
       <c r="K21" s="16">
         <v>17956</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="16">
+        <v>19943</v>
+      </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
@@ -3284,7 +3322,7 @@
     </row>
     <row r="22" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="16">
         <v>4081</v>
@@ -3295,7 +3333,7 @@
       <c r="E22" s="16">
         <v>5306</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="16">
         <f t="shared" si="1"/>
         <v>5540</v>
       </c>
@@ -3315,7 +3353,9 @@
       <c r="K22" s="16">
         <v>4746</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="16">
+        <v>5080</v>
+      </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
@@ -3404,7 +3444,7 @@
     </row>
     <row r="23" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="16">
         <v>7047</v>
@@ -3415,7 +3455,7 @@
       <c r="E23" s="16">
         <v>8206</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="16">
         <f t="shared" si="1"/>
         <v>8463</v>
       </c>
@@ -3435,7 +3475,9 @@
       <c r="K23" s="16">
         <v>7363</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="16">
+        <v>7452</v>
+      </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -3524,7 +3566,7 @@
     </row>
     <row r="24" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="16">
         <v>13526</v>
@@ -3535,7 +3577,7 @@
       <c r="E24" s="16">
         <v>13445</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="16">
         <f t="shared" si="1"/>
         <v>13967</v>
       </c>
@@ -3555,7 +3597,9 @@
       <c r="K24" s="16">
         <v>13202</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="16">
+        <v>12020</v>
+      </c>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -3644,7 +3688,7 @@
     </row>
     <row r="25" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="16">
         <v>7818</v>
@@ -3655,7 +3699,7 @@
       <c r="E25" s="16">
         <v>7550</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <f t="shared" si="1"/>
         <v>8001</v>
       </c>
@@ -3675,7 +3719,9 @@
       <c r="K25" s="16">
         <v>7460</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="16">
+        <v>7059</v>
+      </c>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -3795,7 +3841,9 @@
       <c r="K26" s="17">
         <v>55333</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="17">
+        <v>56714</v>
+      </c>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -3899,7 +3947,7 @@
       <c r="E27" s="16">
         <v>29882</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="16">
         <f t="shared" si="1"/>
         <v>28993</v>
       </c>
@@ -3919,7 +3967,9 @@
       <c r="K27" s="16">
         <v>28164</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="16">
+        <v>25289</v>
+      </c>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -4052,7 +4102,7 @@
       </c>
       <c r="L28" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31425</v>
       </c>
       <c r="M28" s="16">
         <f t="shared" si="4"/>
@@ -4167,7 +4217,7 @@
       <c r="E29" s="16">
         <v>23648</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="16">
         <f t="shared" si="1"/>
         <v>26304</v>
       </c>
@@ -4187,7 +4237,9 @@
       <c r="K29" s="16">
         <v>23115</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="16">
+        <v>23127</v>
+      </c>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
@@ -4291,7 +4343,7 @@
       <c r="E30" s="16">
         <v>2623</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="16">
         <f t="shared" si="1"/>
         <v>3010</v>
       </c>
@@ -4311,7 +4363,9 @@
       <c r="K30" s="16">
         <v>2823</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="16">
+        <v>2362</v>
+      </c>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -4415,7 +4469,7 @@
       <c r="E31" s="16">
         <v>-5</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="16">
         <f t="shared" si="1"/>
         <v>-11</v>
       </c>
@@ -4435,7 +4489,9 @@
       <c r="K31" s="16">
         <v>-28</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="16">
+        <v>-22</v>
+      </c>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -4568,7 +4624,7 @@
       </c>
       <c r="L32" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5914</v>
       </c>
       <c r="M32" s="16">
         <f t="shared" si="7"/>
@@ -4672,7 +4728,7 @@
     </row>
     <row r="33" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="16">
         <v>-329</v>
@@ -4683,7 +4739,7 @@
       <c r="E33" s="16">
         <v>-366</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="16">
         <f t="shared" si="1"/>
         <v>-416</v>
       </c>
@@ -4703,7 +4759,9 @@
       <c r="K33" s="16">
         <v>-441</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="16">
+        <v>-623</v>
+      </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -4800,7 +4858,7 @@
     </row>
     <row r="34" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="16">
         <f t="shared" ref="C34:F34" si="9">C32+C33</f>
@@ -4840,7 +4898,7 @@
       </c>
       <c r="L34" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5291</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="10"/>
@@ -4944,7 +5002,7 @@
     </row>
     <row r="35" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="16">
         <v>-144</v>
@@ -4955,7 +5013,7 @@
       <c r="E35" s="16">
         <v>1054</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="16">
         <f t="shared" si="1"/>
         <v>2340</v>
       </c>
@@ -4975,7 +5033,9 @@
       <c r="K35" s="16">
         <v>183</v>
       </c>
-      <c r="L35" s="16"/>
+      <c r="L35" s="16">
+        <v>1329</v>
+      </c>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -5068,7 +5128,7 @@
     </row>
     <row r="36" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="16">
         <f t="shared" ref="C36:F36" si="13">C34-C35</f>
@@ -5108,7 +5168,7 @@
       </c>
       <c r="L36" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3962</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" si="14"/>
@@ -5212,7 +5272,7 @@
     </row>
     <row r="37" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="16">
         <v>1</v>
@@ -5223,7 +5283,7 @@
       <c r="E37" s="16">
         <v>9</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="16">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -5243,7 +5303,9 @@
       <c r="K37" s="16">
         <v>11</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="16">
+        <v>15</v>
+      </c>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
@@ -5336,7 +5398,7 @@
     </row>
     <row r="38" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="16">
         <f t="shared" ref="C38:F38" si="15">C36+C37</f>
@@ -5376,7 +5438,7 @@
       </c>
       <c r="L38" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3977</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="16"/>
@@ -5573,7 +5635,7 @@
     </row>
     <row r="40" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="18">
         <f t="shared" ref="C40:F40" si="17">C38/C41</f>
@@ -5611,9 +5673,9 @@
         <f t="shared" si="18"/>
         <v>0.36771786192630562</v>
       </c>
-      <c r="L40" s="18" t="e">
+      <c r="L40" s="18">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.4786676896286735</v>
       </c>
       <c r="M40" s="18" t="e">
         <f t="shared" si="18"/>
@@ -5717,7 +5779,7 @@
     </row>
     <row r="41" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4">
         <v>1629.097</v>
@@ -5748,7 +5810,9 @@
       <c r="K41" s="4">
         <v>1604.491</v>
       </c>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>1604.491</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -5933,59 +5997,62 @@
       <c r="CO42" s="4"/>
     </row>
     <row r="43" spans="2:93" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13">
+      <c r="B43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19">
         <f>G26/C26-1</f>
         <v>-2.1923749817757687E-2</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="19">
         <f t="shared" ref="H43:J43" si="20">H26/D26-1</f>
         <v>3.4521660649819541E-2</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="19">
         <f t="shared" si="20"/>
         <v>-3.0970326945498172E-2</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="19">
         <f t="shared" si="20"/>
         <v>-7.2944932162809506E-3</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="19">
         <f>+K26/G26-1</f>
         <v>3.1004863142596317E-2</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="13" t="e">
+      <c r="L43" s="19">
+        <f>+L26/H26-1</f>
+        <v>-4.8502642395772178E-2</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="19" t="e">
         <f>P26/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="19">
         <f t="shared" ref="Q43" si="21">Q26/P26-1</f>
         <v>0.12356822990747207</v>
       </c>
-      <c r="R43" s="13">
+      <c r="R43" s="19">
         <f>R26/Q26-1</f>
         <v>5.5834634292539098E-2</v>
       </c>
-      <c r="S43" s="13">
+      <c r="S43" s="19">
         <f>S26/R26-1</f>
         <v>-6.5964793356917406E-3</v>
       </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
@@ -6057,7 +6124,7 @@
     </row>
     <row r="44" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" ref="C44:F44" si="22">C28/C26</f>
@@ -6095,16 +6162,19 @@
         <f t="shared" si="23"/>
         <v>0.49100898198181919</v>
       </c>
-      <c r="L44" s="13"/>
+      <c r="L44" s="13">
+        <f t="shared" ref="L44" si="24">L28/L26</f>
+        <v>0.55409599040801216</v>
+      </c>
       <c r="M44" s="13"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="13">
-        <f t="shared" ref="P44:Q44" si="24">P28/P26</f>
+        <f t="shared" ref="P44:Q44" si="25">P28/P26</f>
         <v>0.52775585901179589</v>
       </c>
       <c r="Q44" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.50712806359118423</v>
       </c>
       <c r="R44" s="13">
@@ -6192,22 +6262,22 @@
     </row>
     <row r="45" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="13">
-        <f t="shared" ref="C45:F45" si="25">C32/C26</f>
+        <f t="shared" ref="C45:F45" si="26">C32/C26</f>
         <v>1.3212567429654468E-2</v>
       </c>
       <c r="D45" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.2286170508192175E-2</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.781992544788742E-2</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.9146049481245017E-2</v>
       </c>
       <c r="G45" s="13">
@@ -6215,31 +6285,34 @@
         <v>3.8700180737483464E-2</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" ref="H45:K45" si="26">H32/H26</f>
+        <f t="shared" ref="H45:K45" si="27">H32/H26</f>
         <v>0.11908396946564885</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.9429597871583265E-2</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.43492032865435E-2</v>
       </c>
       <c r="K45" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.1741094825872446E-2</v>
       </c>
-      <c r="L45" s="13"/>
+      <c r="L45" s="13">
+        <f t="shared" ref="L45" si="28">L32/L26</f>
+        <v>0.10427760341361922</v>
+      </c>
       <c r="M45" s="13"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="13">
-        <f t="shared" ref="P45:Q45" si="27">P32/P26</f>
+        <f t="shared" ref="P45:Q45" si="29">P32/P26</f>
         <v>7.6671005744671228E-2</v>
       </c>
       <c r="Q45" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.206845803903325E-2</v>
       </c>
       <c r="R45" s="13">
@@ -6327,22 +6400,22 @@
     </row>
     <row r="46" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="13">
-        <f t="shared" ref="C46:F46" si="28">C38/C26</f>
+        <f t="shared" ref="C46:F46" si="30">C38/C26</f>
         <v>9.8593089371628514E-3</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.7206331574562619E-2</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.4649654334367866E-2</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.5331205107741419E-2</v>
       </c>
       <c r="G46" s="13">
@@ -6350,31 +6423,34 @@
         <v>2.2526970877042612E-2</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" ref="H46:K46" si="29">H38/H26</f>
+        <f t="shared" ref="H46:K46" si="31">H38/H26</f>
         <v>8.401979699689624E-2</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.9297758045110237E-2</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.9603653144244531E-2</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.066271483563154E-2</v>
       </c>
-      <c r="L46" s="13"/>
+      <c r="L46" s="13">
+        <f t="shared" ref="L46" si="32">L38/L26</f>
+        <v>7.0123778961103084E-2</v>
+      </c>
       <c r="M46" s="13"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="13">
-        <f t="shared" ref="P46:Q46" si="30">P38/P26</f>
+        <f t="shared" ref="P46:Q46" si="33">P38/P26</f>
         <v>5.5335809455839408E-2</v>
       </c>
       <c r="Q46" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.5951474594391488E-2</v>
       </c>
       <c r="R46" s="13">
@@ -6462,22 +6538,22 @@
     </row>
     <row r="47" spans="2:93" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="13">
-        <f t="shared" ref="C47:F47" si="31">C35/C34</f>
+        <f t="shared" ref="C47:F47" si="34">C35/C34</f>
         <v>-0.36363636363636365</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.23976878612716762</v>
       </c>
       <c r="E47" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.24102446832837868</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.59754851889683347</v>
       </c>
       <c r="G47" s="13">
@@ -6485,31 +6561,34 @@
         <v>0.25217932752179328</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" ref="H47:K47" si="32">H35/H34</f>
+        <f t="shared" ref="H47:K47" si="35">H35/H34</f>
         <v>0.25089982003599282</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.25218800648298217</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.24559255631733595</v>
       </c>
       <c r="K47" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.24015748031496062</v>
       </c>
-      <c r="L47" s="13"/>
+      <c r="L47" s="13">
+        <f t="shared" ref="L47" si="36">L35/L34</f>
+        <v>0.25118125118125118</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="13">
-        <f t="shared" ref="P47:Q47" si="33">P35/P34</f>
+        <f t="shared" ref="P47:Q47" si="37">P35/P34</f>
         <v>0.23006993006993007</v>
       </c>
       <c r="Q47" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.42631917631917632</v>
       </c>
       <c r="R47" s="13">

--- a/HM.BST.xlsx
+++ b/HM.BST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0345CE-491A-49DD-BE92-87406CC15FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA25D4-C6D8-49AD-9F83-51D33D767F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A344954E-3009-47EB-94FE-5B6CEBCD1700}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A344954E-3009-47EB-94FE-5B6CEBCD1700}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -265,13 +265,19 @@
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -422,34 +428,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -467,6 +476,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66241ED3-1272-DA73-F44D-6FFD545FA1EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8748713" y="157162"/>
+          <a:ext cx="14287" cy="6562726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABC067D-9DC0-461D-91B4-101DF36C7FA7}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <v>134.9</v>
+        <v>171.25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -827,10 +891,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="3">
-        <v>1604.491</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>67</v>
+        <v>1603.82</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -842,7 +906,7 @@
       </c>
       <c r="I4" s="6">
         <f>I3*I2</f>
-        <v>216445.83590000001</v>
+        <v>274654.17499999999</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -854,10 +918,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="6">
-        <v>16262</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>67</v>
+        <v>20363</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -865,11 +929,11 @@
         <v>14</v>
       </c>
       <c r="I6" s="6">
-        <f>14435+60924</f>
-        <v>75359</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>67</v>
+        <f>59514+15863</f>
+        <v>75377</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -881,7 +945,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4+I6-I5</f>
-        <v>275542.83590000001</v>
+        <v>329668.17499999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -940,10 +1004,10 @@
   <dimension ref="A1:CO281"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1108,9 @@
       <c r="L3" s="16">
         <v>3706</v>
       </c>
-      <c r="M3" s="16"/>
+      <c r="M3" s="16">
+        <v>3680</v>
+      </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16">
@@ -1168,7 +1234,9 @@
       <c r="L4" s="16">
         <v>239</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="16">
+        <v>238</v>
+      </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16">
@@ -1292,7 +1360,9 @@
       <c r="L5" s="16">
         <v>32</v>
       </c>
-      <c r="M5" s="16"/>
+      <c r="M5" s="16">
+        <v>17</v>
+      </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16">
@@ -1416,7 +1486,9 @@
       <c r="L6" s="16">
         <v>46</v>
       </c>
-      <c r="M6" s="16"/>
+      <c r="M6" s="16">
+        <v>43</v>
+      </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16">
@@ -1540,7 +1612,9 @@
       <c r="L7" s="16">
         <v>69</v>
       </c>
-      <c r="M7" s="16"/>
+      <c r="M7" s="16">
+        <v>66</v>
+      </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16">
@@ -1664,7 +1738,9 @@
       <c r="L8" s="16">
         <v>42</v>
       </c>
-      <c r="M8" s="16"/>
+      <c r="M8" s="16">
+        <v>42</v>
+      </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16">
@@ -1788,7 +1864,9 @@
       <c r="L9" s="16">
         <v>0</v>
       </c>
-      <c r="M9" s="16"/>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16">
@@ -1912,7 +1990,9 @@
       <c r="L10" s="16">
         <v>32</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="16">
+        <v>32</v>
+      </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16">
@@ -2036,7 +2116,9 @@
       <c r="L11" s="16">
         <v>0</v>
       </c>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16">
@@ -2160,7 +2242,9 @@
       <c r="L12" s="16">
         <v>371</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16">
+        <v>366</v>
+      </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16">
@@ -2284,7 +2368,9 @@
       <c r="L13" s="16">
         <v>1005</v>
       </c>
-      <c r="M13" s="16"/>
+      <c r="M13" s="16">
+        <v>995</v>
+      </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16">
@@ -2408,7 +2494,9 @@
       <c r="L14" s="16">
         <v>477</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="M14" s="16">
+        <v>476</v>
+      </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16">
@@ -2532,7 +2620,9 @@
       <c r="L15" s="16">
         <v>562</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="16">
+        <v>560</v>
+      </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16">
@@ -2656,7 +2746,9 @@
       <c r="L16" s="16">
         <v>753</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="16">
+        <v>754</v>
+      </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16">
@@ -2780,7 +2872,9 @@
       <c r="L17" s="16">
         <v>998</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="16">
+        <v>967</v>
+      </c>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16">
@@ -2904,7 +2998,9 @@
       <c r="L18" s="17">
         <v>4166</v>
       </c>
-      <c r="M18" s="17"/>
+      <c r="M18" s="17">
+        <v>4118</v>
+      </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17">
@@ -3128,7 +3224,9 @@
       <c r="L20" s="16">
         <v>5160</v>
       </c>
-      <c r="M20" s="16"/>
+      <c r="M20" s="16">
+        <v>5248</v>
+      </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -3250,7 +3348,9 @@
       <c r="L21" s="16">
         <v>19943</v>
       </c>
-      <c r="M21" s="16"/>
+      <c r="M21" s="16">
+        <v>19863</v>
+      </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -3372,7 +3472,9 @@
       <c r="L22" s="16">
         <v>5080</v>
       </c>
-      <c r="M22" s="16"/>
+      <c r="M22" s="16">
+        <v>5425</v>
+      </c>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -3494,7 +3596,9 @@
       <c r="L23" s="16">
         <v>7452</v>
       </c>
-      <c r="M23" s="16"/>
+      <c r="M23" s="16">
+        <v>7946</v>
+      </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -3616,7 +3720,9 @@
       <c r="L24" s="16">
         <v>12020</v>
       </c>
-      <c r="M24" s="16"/>
+      <c r="M24" s="16">
+        <v>12085</v>
+      </c>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -3738,7 +3844,9 @@
       <c r="L25" s="16">
         <v>7059</v>
       </c>
-      <c r="M25" s="16"/>
+      <c r="M25" s="16">
+        <v>6450</v>
+      </c>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -3860,7 +3968,9 @@
       <c r="L26" s="17">
         <v>56714</v>
       </c>
-      <c r="M26" s="17"/>
+      <c r="M26" s="17">
+        <v>57017</v>
+      </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17">
@@ -3986,7 +4096,9 @@
       <c r="L27" s="16">
         <v>25289</v>
       </c>
-      <c r="M27" s="16"/>
+      <c r="M27" s="16">
+        <v>26874</v>
+      </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16">
@@ -4122,7 +4234,7 @@
       </c>
       <c r="M28" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30143</v>
       </c>
       <c r="N28" s="16">
         <f t="shared" si="4"/>
@@ -4256,7 +4368,9 @@
       <c r="L29" s="16">
         <v>23127</v>
       </c>
-      <c r="M29" s="16"/>
+      <c r="M29" s="16">
+        <v>22700</v>
+      </c>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16">
@@ -4382,7 +4496,9 @@
       <c r="L30" s="16">
         <v>2362</v>
       </c>
-      <c r="M30" s="16"/>
+      <c r="M30" s="16">
+        <v>2467</v>
+      </c>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16">
@@ -4508,7 +4624,9 @@
       <c r="L31" s="16">
         <v>-22</v>
       </c>
-      <c r="M31" s="16"/>
+      <c r="M31" s="16">
+        <v>-62</v>
+      </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16">
@@ -4644,7 +4762,7 @@
       </c>
       <c r="M32" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="N32" s="16">
         <f t="shared" si="7"/>
@@ -4778,7 +4896,9 @@
       <c r="L33" s="16">
         <v>-623</v>
       </c>
-      <c r="M33" s="16"/>
+      <c r="M33" s="16">
+        <v>-592</v>
+      </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16">
@@ -4918,7 +5038,7 @@
       </c>
       <c r="M34" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4322</v>
       </c>
       <c r="N34" s="16">
         <f t="shared" si="10"/>
@@ -5052,7 +5172,9 @@
       <c r="L35" s="16">
         <v>1329</v>
       </c>
-      <c r="M35" s="16"/>
+      <c r="M35" s="16">
+        <v>1110</v>
+      </c>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16">
@@ -5188,7 +5310,7 @@
       </c>
       <c r="M36" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3212</v>
       </c>
       <c r="N36" s="16">
         <f t="shared" si="14"/>
@@ -5322,7 +5444,9 @@
       <c r="L37" s="16">
         <v>15</v>
       </c>
-      <c r="M37" s="16"/>
+      <c r="M37" s="16">
+        <v>17</v>
+      </c>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16">
@@ -5458,7 +5582,7 @@
       </c>
       <c r="M38" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3229</v>
       </c>
       <c r="N38" s="16">
         <f t="shared" si="16"/>
@@ -5693,9 +5817,9 @@
         <f t="shared" si="18"/>
         <v>2.4786676896286735</v>
       </c>
-      <c r="M40" s="18" t="e">
+      <c r="M40" s="18">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.013318202790837</v>
       </c>
       <c r="N40" s="18" t="e">
         <f t="shared" si="18"/>
@@ -5829,7 +5953,9 @@
       <c r="L41" s="3">
         <v>1604.491</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="3">
+        <v>1603.82</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3">
@@ -6044,7 +6170,10 @@
         <f>+L26/H26-1</f>
         <v>-4.8502642395772178E-2</v>
       </c>
-      <c r="M43" s="19"/>
+      <c r="M43" s="19">
+        <f>+M26/I26-1</f>
+        <v>-3.3790310281133995E-2</v>
+      </c>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
       <c r="P43" s="19" t="e">
@@ -6179,10 +6308,13 @@
         <v>0.49100898198181919</v>
       </c>
       <c r="L44" s="21">
-        <f t="shared" ref="L44" si="24">L28/L26</f>
+        <f t="shared" ref="L44:M44" si="24">L28/L26</f>
         <v>0.55409599040801216</v>
       </c>
-      <c r="M44" s="21"/>
+      <c r="M44" s="21">
+        <f t="shared" si="24"/>
+        <v>0.5286668888226318</v>
+      </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="21">
@@ -6317,10 +6449,13 @@
         <v>2.1741094825872446E-2</v>
       </c>
       <c r="L45" s="21">
-        <f t="shared" ref="L45" si="28">L32/L26</f>
+        <f t="shared" ref="L45:M45" si="28">L32/L26</f>
         <v>0.10427760341361922</v>
       </c>
-      <c r="M45" s="21"/>
+      <c r="M45" s="21">
+        <f t="shared" si="28"/>
+        <v>8.6184822070610526E-2</v>
+      </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="21">
@@ -6455,10 +6590,13 @@
         <v>1.066271483563154E-2</v>
       </c>
       <c r="L46" s="21">
-        <f t="shared" ref="L46" si="32">L38/L26</f>
+        <f t="shared" ref="L46:M46" si="32">L38/L26</f>
         <v>7.0123778961103084E-2</v>
       </c>
-      <c r="M46" s="21"/>
+      <c r="M46" s="21">
+        <f t="shared" si="32"/>
+        <v>5.6632232492063769E-2</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="21">
@@ -6593,10 +6731,13 @@
         <v>0.24015748031496062</v>
       </c>
       <c r="L47" s="21">
-        <f t="shared" ref="L47" si="36">L35/L34</f>
+        <f t="shared" ref="L47:M47" si="36">L35/L34</f>
         <v>0.25118125118125118</v>
       </c>
-      <c r="M47" s="21"/>
+      <c r="M47" s="21">
+        <f t="shared" si="36"/>
+        <v>0.25682554372975475</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="21">
@@ -28457,5 +28598,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{35BC25D7-6932-49A9-AB7E-8D07DC7F3DFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HM.BST.xlsx
+++ b/HM.BST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA25D4-C6D8-49AD-9F83-51D33D767F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264B5A7-84D7-4711-939F-BC8808BC67E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A344954E-3009-47EB-94FE-5B6CEBCD1700}"/>
   </bookViews>
@@ -482,16 +482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -506,7 +506,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8748713" y="157162"/>
+          <a:off x="9396413" y="119062"/>
           <a:ext cx="14287" cy="6562726"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <v>171.25</v>
+        <v>185.55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -891,10 +891,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="3">
-        <v>1603.82</v>
+        <v>1604.0329999999999</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
       </c>
       <c r="I4" s="6">
         <f>I3*I2</f>
-        <v>274654.17499999999</v>
+        <v>297628.32315000001</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -918,10 +918,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="6">
-        <v>20363</v>
+        <v>20908</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -929,11 +929,11 @@
         <v>14</v>
       </c>
       <c r="I6" s="6">
-        <f>59514+15863</f>
-        <v>75377</v>
+        <f>18330+2345</f>
+        <v>20675</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4+I6-I5</f>
-        <v>329668.17499999999</v>
+        <v>297395.32315000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1004,10 +1004,10 @@
   <dimension ref="A1:CO281"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,6 +1073,9 @@
       <c r="S2" s="2">
         <v>2024</v>
       </c>
+      <c r="T2" s="2">
+        <v>2025</v>
+      </c>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
@@ -1111,7 +1114,9 @@
       <c r="M3" s="16">
         <v>3680</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="16">
+        <v>3660</v>
+      </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16">
         <v>4242</v>
@@ -1125,7 +1130,9 @@
       <c r="S3" s="16">
         <v>3777</v>
       </c>
-      <c r="T3" s="16"/>
+      <c r="T3" s="16">
+        <v>3660</v>
+      </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
@@ -1237,7 +1244,9 @@
       <c r="M4" s="16">
         <v>238</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="16">
+        <v>246</v>
+      </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16">
         <v>275</v>
@@ -1251,7 +1260,9 @@
       <c r="S4" s="16">
         <v>238</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="16">
+        <v>246</v>
+      </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -1363,7 +1374,9 @@
       <c r="M5" s="16">
         <v>17</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
       <c r="O5" s="16"/>
       <c r="P5" s="16">
         <v>98</v>
@@ -1377,7 +1390,9 @@
       <c r="S5" s="16">
         <v>48</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
@@ -1489,7 +1504,9 @@
       <c r="M6" s="16">
         <v>43</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="16">
+        <v>44</v>
+      </c>
       <c r="O6" s="16"/>
       <c r="P6" s="16">
         <v>57</v>
@@ -1503,7 +1520,9 @@
       <c r="S6" s="16">
         <v>46</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="16">
+        <v>44</v>
+      </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -1615,7 +1634,9 @@
       <c r="M7" s="16">
         <v>66</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="16">
+        <v>66</v>
+      </c>
       <c r="O7" s="16"/>
       <c r="P7" s="16">
         <v>78</v>
@@ -1629,7 +1650,9 @@
       <c r="S7" s="16">
         <v>70</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16">
+        <v>66</v>
+      </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -1741,7 +1764,9 @@
       <c r="M8" s="16">
         <v>42</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="16">
+        <v>53</v>
+      </c>
       <c r="O8" s="16"/>
       <c r="P8" s="16">
         <v>24</v>
@@ -1755,7 +1780,9 @@
       <c r="S8" s="16">
         <v>40</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="16">
+        <v>53</v>
+      </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -1867,7 +1894,9 @@
       <c r="M9" s="16">
         <v>0</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
       <c r="O9" s="16"/>
       <c r="P9" s="16">
         <v>0</v>
@@ -1881,7 +1910,9 @@
       <c r="S9" s="16">
         <v>0</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
@@ -1993,7 +2024,9 @@
       <c r="M10" s="16">
         <v>32</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="16">
+        <v>32</v>
+      </c>
       <c r="O10" s="16"/>
       <c r="P10" s="16">
         <v>27</v>
@@ -2007,7 +2040,9 @@
       <c r="S10" s="16">
         <v>34</v>
       </c>
-      <c r="T10" s="16"/>
+      <c r="T10" s="16">
+        <v>32</v>
+      </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -2119,7 +2154,9 @@
       <c r="M11" s="16">
         <v>0</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16">
         <v>0</v>
@@ -2133,7 +2170,9 @@
       <c r="S11" s="16">
         <v>0</v>
       </c>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -2245,7 +2284,9 @@
       <c r="M12" s="16">
         <v>366</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="16">
+        <v>357</v>
+      </c>
       <c r="O12" s="16"/>
       <c r="P12" s="16">
         <v>427</v>
@@ -2259,7 +2300,9 @@
       <c r="S12" s="16">
         <v>380</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="16">
+        <v>357</v>
+      </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
@@ -2371,7 +2414,9 @@
       <c r="M13" s="16">
         <v>995</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="16">
+        <v>994</v>
+      </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16">
         <v>1127</v>
@@ -2385,7 +2430,9 @@
       <c r="S13" s="16">
         <v>1016</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="16">
+        <v>994</v>
+      </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
@@ -2497,7 +2544,9 @@
       <c r="M14" s="16">
         <v>476</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="16">
+        <v>478</v>
+      </c>
       <c r="O14" s="16"/>
       <c r="P14" s="16">
         <v>653</v>
@@ -2511,7 +2560,9 @@
       <c r="S14" s="16">
         <v>479</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="16">
+        <v>478</v>
+      </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
@@ -2623,7 +2674,9 @@
       <c r="M15" s="16">
         <v>560</v>
       </c>
-      <c r="N15" s="16"/>
+      <c r="N15" s="16">
+        <v>563</v>
+      </c>
       <c r="O15" s="16"/>
       <c r="P15" s="16">
         <v>650</v>
@@ -2637,7 +2690,9 @@
       <c r="S15" s="16">
         <v>574</v>
       </c>
-      <c r="T15" s="16"/>
+      <c r="T15" s="16">
+        <v>563</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -2749,7 +2804,9 @@
       <c r="M16" s="16">
         <v>754</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="16">
+        <v>769</v>
+      </c>
       <c r="O16" s="16"/>
       <c r="P16" s="16">
         <v>757</v>
@@ -2763,7 +2820,9 @@
       <c r="S16" s="16">
         <v>759</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="16">
+        <v>769</v>
+      </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -2875,7 +2934,9 @@
       <c r="M17" s="16">
         <v>967</v>
       </c>
-      <c r="N17" s="16"/>
+      <c r="N17" s="16">
+        <v>940</v>
+      </c>
       <c r="O17" s="16"/>
       <c r="P17" s="16">
         <v>1187</v>
@@ -2889,7 +2950,9 @@
       <c r="S17" s="16">
         <v>1045</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="16">
+        <v>940</v>
+      </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -3001,7 +3064,9 @@
       <c r="M18" s="17">
         <v>4118</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="17">
+        <v>4101</v>
+      </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17">
         <f t="shared" ref="P18:R18" si="0">+SUM(P12:P17)</f>
@@ -3019,7 +3084,10 @@
         <f>+SUM(S12:S17)</f>
         <v>4253</v>
       </c>
-      <c r="T18" s="16"/>
+      <c r="T18" s="17">
+        <f>+SUM(T12:T17)</f>
+        <v>4101</v>
+      </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
@@ -3227,7 +3295,9 @@
       <c r="M20" s="16">
         <v>5248</v>
       </c>
-      <c r="N20" s="16"/>
+      <c r="N20" s="16">
+        <v>5133</v>
+      </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
@@ -3237,7 +3307,9 @@
       <c r="S20" s="16">
         <v>20627</v>
       </c>
-      <c r="T20" s="16"/>
+      <c r="T20" s="16">
+        <v>20147</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -3351,7 +3423,9 @@
       <c r="M21" s="16">
         <v>19863</v>
       </c>
-      <c r="N21" s="16"/>
+      <c r="N21" s="16">
+        <v>21433</v>
+      </c>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -3361,7 +3435,9 @@
       <c r="S21" s="16">
         <v>79550</v>
       </c>
-      <c r="T21" s="16"/>
+      <c r="T21" s="16">
+        <v>79195</v>
+      </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
@@ -3475,7 +3551,9 @@
       <c r="M22" s="16">
         <v>5425</v>
       </c>
-      <c r="N22" s="16"/>
+      <c r="N22" s="16">
+        <v>5683</v>
+      </c>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
@@ -3485,7 +3563,9 @@
       <c r="S22" s="16">
         <v>21181</v>
       </c>
-      <c r="T22" s="16"/>
+      <c r="T22" s="16">
+        <v>20934</v>
+      </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -3599,7 +3679,9 @@
       <c r="M23" s="16">
         <v>7946</v>
       </c>
-      <c r="N23" s="16"/>
+      <c r="N23" s="16">
+        <v>8520</v>
+      </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
@@ -3609,7 +3691,9 @@
       <c r="S23" s="16">
         <v>31507</v>
       </c>
-      <c r="T23" s="16"/>
+      <c r="T23" s="16">
+        <v>31271</v>
+      </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -3723,7 +3807,9 @@
       <c r="M24" s="16">
         <v>12085</v>
       </c>
-      <c r="N24" s="16"/>
+      <c r="N24" s="16">
+        <v>11692</v>
+      </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
@@ -3733,7 +3819,9 @@
       <c r="S24" s="16">
         <v>51798</v>
       </c>
-      <c r="T24" s="16"/>
+      <c r="T24" s="16">
+        <v>48999</v>
+      </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
@@ -3847,7 +3935,9 @@
       <c r="M25" s="16">
         <v>6450</v>
       </c>
-      <c r="N25" s="16"/>
+      <c r="N25" s="16">
+        <v>6760</v>
+      </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -3857,7 +3947,9 @@
       <c r="S25" s="16">
         <v>29815</v>
       </c>
-      <c r="T25" s="16"/>
+      <c r="T25" s="16">
+        <v>27729</v>
+      </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
@@ -3971,7 +4063,9 @@
       <c r="M26" s="17">
         <v>57017</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="17">
+        <v>59221</v>
+      </c>
       <c r="O26" s="17"/>
       <c r="P26" s="17">
         <v>198967</v>
@@ -3985,7 +4079,9 @@
       <c r="S26" s="17">
         <v>234478</v>
       </c>
-      <c r="T26" s="16"/>
+      <c r="T26" s="17">
+        <v>228285</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
@@ -4099,7 +4195,9 @@
       <c r="M27" s="16">
         <v>26874</v>
       </c>
-      <c r="N27" s="16"/>
+      <c r="N27" s="16">
+        <v>26137</v>
+      </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16">
         <v>93961</v>
@@ -4113,7 +4211,9 @@
       <c r="S27" s="16">
         <v>109179</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="16">
+        <v>106464</v>
+      </c>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
@@ -4238,7 +4338,7 @@
       </c>
       <c r="N28" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33084</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16">
@@ -4257,7 +4357,10 @@
         <f>S26-S27</f>
         <v>125299</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="16">
+        <f>T26-T27</f>
+        <v>121821</v>
+      </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
@@ -4371,7 +4474,9 @@
       <c r="M29" s="16">
         <v>22700</v>
       </c>
-      <c r="N29" s="16"/>
+      <c r="N29" s="16">
+        <v>24081</v>
+      </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16">
         <v>80535</v>
@@ -4385,7 +4490,9 @@
       <c r="S29" s="16">
         <v>97153</v>
       </c>
-      <c r="T29" s="16"/>
+      <c r="T29" s="16">
+        <v>93023</v>
+      </c>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
@@ -4499,7 +4606,9 @@
       <c r="M30" s="16">
         <v>2467</v>
       </c>
-      <c r="N30" s="16"/>
+      <c r="N30" s="16">
+        <v>2617</v>
+      </c>
       <c r="O30" s="16"/>
       <c r="P30" s="16">
         <v>9216</v>
@@ -4513,7 +4622,9 @@
       <c r="S30" s="16">
         <v>10762</v>
       </c>
-      <c r="T30" s="16"/>
+      <c r="T30" s="16">
+        <v>10269</v>
+      </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -4627,7 +4738,9 @@
       <c r="M31" s="16">
         <v>-62</v>
       </c>
-      <c r="N31" s="16"/>
+      <c r="N31" s="16">
+        <v>-22</v>
+      </c>
       <c r="O31" s="16"/>
       <c r="P31" s="16">
         <v>0</v>
@@ -4641,7 +4754,9 @@
       <c r="S31" s="16">
         <v>-78</v>
       </c>
-      <c r="T31" s="16"/>
+      <c r="T31" s="16">
+        <v>-134</v>
+      </c>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
@@ -4766,7 +4881,7 @@
       </c>
       <c r="N32" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6364</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="16">
@@ -4785,7 +4900,10 @@
         <f>S28-SUM(S29:S30)+S31</f>
         <v>17306</v>
       </c>
-      <c r="T32" s="16"/>
+      <c r="T32" s="16">
+        <f>T28-SUM(T29:T30)+T31</f>
+        <v>18395</v>
+      </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
@@ -4899,7 +5017,10 @@
       <c r="M33" s="16">
         <v>-592</v>
       </c>
-      <c r="N33" s="16"/>
+      <c r="N33" s="16">
+        <f>-698+161</f>
+        <v>-537</v>
+      </c>
       <c r="O33" s="16"/>
       <c r="P33" s="16">
         <f>203-1158</f>
@@ -4917,7 +5038,10 @@
         <f>890-2753</f>
         <v>-1863</v>
       </c>
-      <c r="T33" s="16"/>
+      <c r="T33" s="16">
+        <f>-2653+460</f>
+        <v>-2193</v>
+      </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -5042,7 +5166,7 @@
       </c>
       <c r="N34" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5827</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16">
@@ -5054,14 +5178,17 @@
         <v>6216</v>
       </c>
       <c r="R34" s="16">
-        <f t="shared" ref="R34:S34" si="12">R32+R33</f>
+        <f t="shared" ref="R34:T34" si="12">R32+R33</f>
         <v>13010</v>
       </c>
       <c r="S34" s="16">
         <f t="shared" si="12"/>
         <v>15443</v>
       </c>
-      <c r="T34" s="16"/>
+      <c r="T34" s="16">
+        <f t="shared" si="12"/>
+        <v>16202</v>
+      </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
@@ -5175,7 +5302,9 @@
       <c r="M35" s="16">
         <v>1110</v>
       </c>
-      <c r="N35" s="16"/>
+      <c r="N35" s="16">
+        <v>1495</v>
+      </c>
       <c r="O35" s="16"/>
       <c r="P35" s="16">
         <v>3290</v>
@@ -5189,7 +5318,9 @@
       <c r="S35" s="16">
         <v>3859</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="16">
+        <v>4117</v>
+      </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -5314,7 +5445,7 @@
       </c>
       <c r="N36" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4332</v>
       </c>
       <c r="O36" s="16"/>
       <c r="P36" s="16">
@@ -5333,7 +5464,10 @@
         <f>S34-S35</f>
         <v>11584</v>
       </c>
-      <c r="T36" s="16"/>
+      <c r="T36" s="16">
+        <f>T34-T35</f>
+        <v>12085</v>
+      </c>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
@@ -5447,7 +5581,9 @@
       <c r="M37" s="16">
         <v>17</v>
       </c>
-      <c r="N37" s="16"/>
+      <c r="N37" s="16">
+        <v>30</v>
+      </c>
       <c r="O37" s="16"/>
       <c r="P37" s="16">
         <v>0</v>
@@ -5461,7 +5597,9 @@
       <c r="S37" s="16">
         <v>37</v>
       </c>
-      <c r="T37" s="16"/>
+      <c r="T37" s="16">
+        <v>73</v>
+      </c>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -5586,7 +5724,7 @@
       </c>
       <c r="N38" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4362</v>
       </c>
       <c r="O38" s="16"/>
       <c r="P38" s="16">
@@ -5605,7 +5743,10 @@
         <f>S36+S37</f>
         <v>11621</v>
       </c>
-      <c r="T38" s="16"/>
+      <c r="T38" s="16">
+        <f>T36+T37</f>
+        <v>12158</v>
+      </c>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
@@ -5821,9 +5962,9 @@
         <f t="shared" si="18"/>
         <v>2.013318202790837</v>
       </c>
-      <c r="N40" s="18" t="e">
+      <c r="N40" s="18">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.7205843830223557</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="18">
@@ -5842,7 +5983,10 @@
         <f>S38/S41</f>
         <v>7.2108239922313473</v>
       </c>
-      <c r="T40" s="3"/>
+      <c r="T40" s="18">
+        <f>T38/T41</f>
+        <v>7.5796445584348957</v>
+      </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -5956,7 +6100,9 @@
       <c r="M41" s="3">
         <v>1603.82</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3">
+        <v>1603.3320000000001</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3">
         <v>1655.0719999999999</v>
@@ -5970,7 +6116,9 @@
       <c r="S41" s="3">
         <v>1611.605</v>
       </c>
-      <c r="T41" s="3"/>
+      <c r="T41" s="3">
+        <v>1604.0329999999999</v>
+      </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -6174,12 +6322,12 @@
         <f>+M26/I26-1</f>
         <v>-3.3790310281133995E-2</v>
       </c>
-      <c r="N43" s="20"/>
+      <c r="N43" s="19">
+        <f>+N26/J26-1</f>
+        <v>-4.7786728409949686E-2</v>
+      </c>
       <c r="O43" s="20"/>
-      <c r="P43" s="19" t="e">
-        <f>P26/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P43" s="19"/>
       <c r="Q43" s="19">
         <f t="shared" ref="Q43" si="21">Q26/P26-1</f>
         <v>0.12356822990747207</v>
@@ -6192,7 +6340,10 @@
         <f>S26/R26-1</f>
         <v>-6.5964793356917406E-3</v>
       </c>
-      <c r="T43" s="20"/>
+      <c r="T43" s="19">
+        <f>T26/S26-1</f>
+        <v>-2.6411859534796411E-2</v>
+      </c>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
@@ -6315,14 +6466,17 @@
         <f t="shared" si="24"/>
         <v>0.5286668888226318</v>
       </c>
-      <c r="N44" s="3"/>
+      <c r="N44" s="21">
+        <f t="shared" ref="N44" si="25">N28/N26</f>
+        <v>0.5586531804596343</v>
+      </c>
       <c r="O44" s="3"/>
       <c r="P44" s="21">
-        <f t="shared" ref="P44:Q44" si="25">P28/P26</f>
+        <f t="shared" ref="P44:Q44" si="26">P28/P26</f>
         <v>0.52775585901179589</v>
       </c>
       <c r="Q44" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.50712806359118423</v>
       </c>
       <c r="R44" s="21">
@@ -6333,7 +6487,10 @@
         <f>S28/S26</f>
         <v>0.5343742270063716</v>
       </c>
-      <c r="T44" s="3"/>
+      <c r="T44" s="21">
+        <f>T28/T26</f>
+        <v>0.53363558709507852</v>
+      </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -6413,19 +6570,19 @@
         <v>30</v>
       </c>
       <c r="C45" s="21">
-        <f t="shared" ref="C45:F45" si="26">C32/C26</f>
+        <f t="shared" ref="C45:F45" si="27">C32/C26</f>
         <v>1.3212567429654468E-2</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.2286170508192175E-2</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.781992544788742E-2</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9146049481245017E-2</v>
       </c>
       <c r="G45" s="21">
@@ -6433,37 +6590,40 @@
         <v>3.8700180737483464E-2</v>
       </c>
       <c r="H45" s="21">
-        <f t="shared" ref="H45:K45" si="27">H32/H26</f>
+        <f t="shared" ref="H45:K45" si="28">H32/H26</f>
         <v>0.11908396946564885</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.9429597871583265E-2</v>
       </c>
       <c r="J45" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.43492032865435E-2</v>
       </c>
       <c r="K45" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.1741094825872446E-2</v>
       </c>
       <c r="L45" s="21">
-        <f t="shared" ref="L45:M45" si="28">L32/L26</f>
+        <f t="shared" ref="L45:M45" si="29">L32/L26</f>
         <v>0.10427760341361922</v>
       </c>
       <c r="M45" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.6184822070610526E-2</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="21">
+        <f t="shared" ref="N45" si="30">N32/N26</f>
+        <v>0.10746188007632428</v>
+      </c>
       <c r="O45" s="3"/>
       <c r="P45" s="21">
-        <f t="shared" ref="P45:Q45" si="29">P32/P26</f>
+        <f t="shared" ref="P45:Q45" si="31">P32/P26</f>
         <v>7.6671005744671228E-2</v>
       </c>
       <c r="Q45" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.206845803903325E-2</v>
       </c>
       <c r="R45" s="21">
@@ -6474,7 +6634,10 @@
         <f>S32/S26</f>
         <v>7.3806497837750243E-2</v>
       </c>
-      <c r="T45" s="3"/>
+      <c r="T45" s="21">
+        <f>T32/T26</f>
+        <v>8.0579100685546579E-2</v>
+      </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -6554,19 +6717,19 @@
         <v>31</v>
       </c>
       <c r="C46" s="21">
-        <f t="shared" ref="C46:F46" si="30">C38/C26</f>
+        <f t="shared" ref="C46:F46" si="32">C38/C26</f>
         <v>9.8593089371628514E-3</v>
       </c>
       <c r="D46" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.7206331574562619E-2</v>
       </c>
       <c r="E46" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.4649654334367866E-2</v>
       </c>
       <c r="F46" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.5331205107741419E-2</v>
       </c>
       <c r="G46" s="21">
@@ -6574,37 +6737,40 @@
         <v>2.2526970877042612E-2</v>
       </c>
       <c r="H46" s="21">
-        <f t="shared" ref="H46:K46" si="31">H38/H26</f>
+        <f t="shared" ref="H46:K46" si="33">H38/H26</f>
         <v>8.401979699689624E-2</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.9297758045110237E-2</v>
       </c>
       <c r="J46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.9603653144244531E-2</v>
       </c>
       <c r="K46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.066271483563154E-2</v>
       </c>
       <c r="L46" s="21">
-        <f t="shared" ref="L46:M46" si="32">L38/L26</f>
+        <f t="shared" ref="L46:M46" si="34">L38/L26</f>
         <v>7.0123778961103084E-2</v>
       </c>
       <c r="M46" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.6632232492063769E-2</v>
       </c>
-      <c r="N46" s="3"/>
+      <c r="N46" s="21">
+        <f t="shared" ref="N46" si="35">N38/N26</f>
+        <v>7.3656304351496935E-2</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="P46" s="21">
-        <f t="shared" ref="P46:Q46" si="33">P38/P26</f>
+        <f t="shared" ref="P46:Q46" si="36">P38/P26</f>
         <v>5.5335809455839408E-2</v>
       </c>
       <c r="Q46" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.5951474594391488E-2</v>
       </c>
       <c r="R46" s="21">
@@ -6615,7 +6781,10 @@
         <f>S38/S26</f>
         <v>4.9561152858690366E-2</v>
       </c>
-      <c r="T46" s="3"/>
+      <c r="T46" s="21">
+        <f>T38/T26</f>
+        <v>5.3257988917362067E-2</v>
+      </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -6695,19 +6864,19 @@
         <v>32</v>
       </c>
       <c r="C47" s="21">
-        <f t="shared" ref="C47:F47" si="34">C35/C34</f>
+        <f t="shared" ref="C47:F47" si="37">C35/C34</f>
         <v>-0.36363636363636365</v>
       </c>
       <c r="D47" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.23976878612716762</v>
       </c>
       <c r="E47" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.24102446832837868</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.59754851889683347</v>
       </c>
       <c r="G47" s="21">
@@ -6715,37 +6884,40 @@
         <v>0.25217932752179328</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" ref="H47:K47" si="35">H35/H34</f>
+        <f t="shared" ref="H47:K47" si="38">H35/H34</f>
         <v>0.25089982003599282</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.25218800648298217</v>
       </c>
       <c r="J47" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.24559255631733595</v>
       </c>
       <c r="K47" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.24015748031496062</v>
       </c>
       <c r="L47" s="21">
-        <f t="shared" ref="L47:M47" si="36">L35/L34</f>
+        <f t="shared" ref="L47:M47" si="39">L35/L34</f>
         <v>0.25118125118125118</v>
       </c>
       <c r="M47" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.25682554372975475</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="21">
+        <f t="shared" ref="N47" si="40">N35/N34</f>
+        <v>0.25656426977861679</v>
+      </c>
       <c r="O47" s="3"/>
       <c r="P47" s="21">
-        <f t="shared" ref="P47:Q47" si="37">P35/P34</f>
+        <f t="shared" ref="P47:Q47" si="41">P35/P34</f>
         <v>0.23006993006993007</v>
       </c>
       <c r="Q47" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.42631917631917632</v>
       </c>
       <c r="R47" s="21">
@@ -6756,7 +6928,10 @@
         <f>S35/S34</f>
         <v>0.24988668004921324</v>
       </c>
-      <c r="T47" s="3"/>
+      <c r="T47" s="21">
+        <f>T35/T34</f>
+        <v>0.25410443155166029</v>
+      </c>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
